--- a/data/trans_dic/PCS12_SP_R3-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/PCS12_SP_R3-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población en el primer cuartil de la puntuación del componente de salud física (SF12)</t>
+          <t>Población en el primer cuartil (49.019) de la puntuación del componente de salud física (SF12)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>18,46%</t>
+          <t>17,3%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>19,9%</t>
+          <t>19,13%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>28,24%</t>
+          <t>19,21%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>38,62%</t>
+          <t>26,99%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>31,36%</t>
+          <t>27,21%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>36,49%</t>
+          <t>31,29%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>28,37%</t>
+          <t>30,15%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>35,57%</t>
+          <t>32,36%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>24,83%</t>
+          <t>22,23%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>28,05%</t>
+          <t>25,18%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>28,3%</t>
+          <t>24,67%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>36,9%</t>
+          <t>29,76%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,12; 26,83</t>
+          <t>14,45; 20,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,84; 26,95</t>
+          <t>16,42; 22,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,22; 37,51</t>
+          <t>16,14; 22,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>29,59; 49,51</t>
+          <t>23,92; 30,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,41; 39,86</t>
+          <t>24,09; 30,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>26,85; 45,23</t>
+          <t>27,37; 34,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,72; 38,41</t>
+          <t>26,24; 33,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>29,35; 41,79</t>
+          <t>29,54; 35,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,81; 30,88</t>
+          <t>19,83; 24,36</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>23,06; 35,3</t>
+          <t>22,77; 27,51</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>22,66; 34,23</t>
+          <t>22,43; 27,28</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>31,14; 42,92</t>
+          <t>27,44; 32,13</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>17,06%</t>
+          <t>14,22%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>18,98%</t>
+          <t>18,55%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>17,33%</t>
+          <t>16,38%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>25,34%</t>
+          <t>35,13%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>26,39%</t>
+          <t>27,32%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>30,3%</t>
+          <t>29,65%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>30,51%</t>
+          <t>26,42%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>31,64%</t>
+          <t>30,02%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>21,72%</t>
+          <t>20,79%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>24,63%</t>
+          <t>24,14%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>23,93%</t>
+          <t>21,45%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>28,61%</t>
+          <t>32,86%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,13; 20,39</t>
+          <t>11,81; 16,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,46; 22,61</t>
+          <t>16,07; 21,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,46; 20,85</t>
+          <t>14,0; 18,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,02; 29,04</t>
+          <t>17,67; 67,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,77; 30,14</t>
+          <t>24,35; 30,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,37; 34,1</t>
+          <t>26,82; 32,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>26,78; 34,37</t>
+          <t>23,5; 28,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>28,58; 34,86</t>
+          <t>27,73; 32,68</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,5; 24,26</t>
+          <t>19,07; 22,87</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>22,15; 27,3</t>
+          <t>22,02; 26,07</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>21,73; 26,76</t>
+          <t>19,81; 23,44</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>26,26; 31,02</t>
+          <t>23,53; 55,17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14,22%</t>
+          <t>17,25%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>14,12%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,38%</t>
+          <t>14,63%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>22,75%</t>
+          <t>20,79%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>27,32%</t>
+          <t>28,73%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>29,65%</t>
+          <t>26,07%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>26,42%</t>
+          <t>23,26%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>29,8%</t>
+          <t>20,23%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>20,79%</t>
+          <t>23,01%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>24,14%</t>
+          <t>20,17%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>21,45%</t>
+          <t>19,02%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>26,31%</t>
+          <t>20,47%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,81; 16,41</t>
+          <t>14,4; 20,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,07; 21,06</t>
+          <t>11,7; 17,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,0; 18,98</t>
+          <t>12,37; 17,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,96; 38,29</t>
+          <t>17,66; 24,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>24,35; 30,13</t>
+          <t>25,22; 32,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,82; 32,89</t>
+          <t>22,92; 29,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>23,5; 28,97</t>
+          <t>20,29; 26,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>27,55; 32,46</t>
+          <t>10,9; 26,77</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19,07; 22,87</t>
+          <t>20,66; 25,29</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>22,02; 26,07</t>
+          <t>18,0; 22,34</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>19,81; 23,44</t>
+          <t>17,0; 21,15</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>23,7; 32,26</t>
+          <t>12,71; 24,24</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,25%</t>
+          <t>15,26%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>19,21%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,63%</t>
+          <t>16,86%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>21,25%</t>
+          <t>21,57%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>28,73%</t>
+          <t>26,07%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>26,07%</t>
+          <t>29,51%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>23,26%</t>
+          <t>25,45%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>23,29%</t>
+          <t>30,67%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>23,01%</t>
+          <t>20,93%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>20,17%</t>
+          <t>24,63%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
+          <t>21,38%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>22,37%</t>
+          <t>26,5%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,4; 20,18</t>
+          <t>13,02; 17,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,7; 17,26</t>
+          <t>16,71; 22,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,37; 17,8</t>
+          <t>14,38; 19,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,11; 24,51</t>
+          <t>18,98; 24,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,22; 32,22</t>
+          <t>23,4; 28,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,92; 29,37</t>
+          <t>26,71; 32,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,29; 26,52</t>
+          <t>22,59; 28,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,42; 27,55</t>
+          <t>25,07; 34,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,66; 25,29</t>
+          <t>19,15; 22,82</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,0; 22,34</t>
+          <t>22,56; 26,61</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,0; 21,15</t>
+          <t>19,5; 23,47</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,21; 24,96</t>
+          <t>23,29; 28,58</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>15,26%</t>
+          <t>15,8%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>19,21%</t>
+          <t>17,87%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>16,86%</t>
+          <t>16,69%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>21,85%</t>
+          <t>27,08%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>26,07%</t>
+          <t>27,2%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>29,51%</t>
+          <t>29,15%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>25,45%</t>
+          <t>26,14%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>32,56%</t>
+          <t>28,14%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>20,93%</t>
+          <t>21,59%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>24,63%</t>
+          <t>23,61%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>21,38%</t>
+          <t>21,52%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>27,67%</t>
+          <t>27,63%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13,02; 17,6</t>
+          <t>14,68; 17,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,71; 22,17</t>
+          <t>16,44; 19,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,38; 19,41</t>
+          <t>15,46; 18,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>19,29; 24,56</t>
+          <t>21,1; 42,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>23,4; 28,82</t>
+          <t>25,72; 28,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>26,71; 32,64</t>
+          <t>27,51; 30,72</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>22,59; 28,29</t>
+          <t>24,49; 27,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>29,88; 35,42</t>
+          <t>22,84; 30,68</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>19,15; 22,82</t>
+          <t>20,61; 22,62</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>22,56; 26,61</t>
+          <t>22,65; 24,66</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>19,5; 23,47</t>
+          <t>20,43; 22,54</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>25,87; 29,49</t>
+          <t>24,41; 36,23</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>15,8%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>17,87%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>16,69%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>23,06%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>27,2%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>29,15%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>26,14%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>29,62%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>21,59%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>23,61%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>21,52%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>26,53%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>14,68; 17,18</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>16,44; 19,23</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>15,46; 18,02</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>21,28; 27,16</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>25,72; 28,95</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>27,51; 30,72</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>24,49; 27,85</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>26,52; 31,33</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>20,61; 22,62</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>22,65; 24,66</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>20,43; 22,54</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>25,13; 28,25</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/PCS12_SP_R3-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/PCS12_SP_R3-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,45; 20,03</t>
+          <t>14,67; 20,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,42; 22,2</t>
+          <t>16,25; 22,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,14; 22,12</t>
+          <t>16,38; 22,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,92; 30,49</t>
+          <t>23,76; 30,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>24,09; 30,67</t>
+          <t>23,88; 30,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>27,37; 34,56</t>
+          <t>27,74; 34,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>26,24; 33,82</t>
+          <t>26,54; 33,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>29,54; 35,12</t>
+          <t>29,81; 35,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,83; 24,36</t>
+          <t>19,96; 24,43</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>22,77; 27,51</t>
+          <t>22,86; 27,66</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>22,43; 27,28</t>
+          <t>22,31; 27,06</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>27,44; 32,13</t>
+          <t>27,58; 32,3</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,81; 16,41</t>
+          <t>11,94; 16,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,07; 21,06</t>
+          <t>16,29; 21,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,0; 18,98</t>
+          <t>14,19; 18,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,67; 67,56</t>
+          <t>17,56; 65,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,35; 30,13</t>
+          <t>24,58; 30,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,82; 32,89</t>
+          <t>27,07; 32,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,5; 28,97</t>
+          <t>23,61; 29,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,73; 32,68</t>
+          <t>27,74; 32,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,07; 22,87</t>
+          <t>19,05; 22,81</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>22,02; 26,07</t>
+          <t>22,27; 26,29</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>19,81; 23,44</t>
+          <t>19,58; 23,3</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>23,53; 55,17</t>
+          <t>23,78; 53,46</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,4; 20,18</t>
+          <t>14,48; 20,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,7; 17,26</t>
+          <t>11,59; 17,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,37; 17,8</t>
+          <t>12,12; 17,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,66; 24,0</t>
+          <t>17,66; 24,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>25,22; 32,22</t>
+          <t>25,68; 32,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,92; 29,37</t>
+          <t>22,77; 29,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,29; 26,52</t>
+          <t>20,09; 26,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,9; 26,77</t>
+          <t>11,08; 27,26</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,66; 25,29</t>
+          <t>20,77; 25,29</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>18,0; 22,34</t>
+          <t>17,99; 22,27</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,0; 21,15</t>
+          <t>16,93; 21,26</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,71; 24,24</t>
+          <t>13,51; 24,08</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,02; 17,6</t>
+          <t>13,25; 17,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,71; 22,17</t>
+          <t>16,7; 21,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,38; 19,41</t>
+          <t>14,64; 19,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,98; 24,29</t>
+          <t>19,26; 24,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,4; 28,82</t>
+          <t>23,48; 28,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,71; 32,64</t>
+          <t>26,67; 32,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,59; 28,29</t>
+          <t>22,6; 28,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,07; 34,0</t>
+          <t>24,6; 33,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,15; 22,82</t>
+          <t>19,13; 22,64</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>22,56; 26,61</t>
+          <t>22,77; 26,72</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>19,5; 23,47</t>
+          <t>19,61; 23,38</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>23,29; 28,58</t>
+          <t>23,27; 28,65</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,68; 17,18</t>
+          <t>14,65; 17,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,44; 19,23</t>
+          <t>16,72; 19,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,46; 18,02</t>
+          <t>15,43; 17,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>21,1; 42,84</t>
+          <t>21,12; 46,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>25,72; 28,95</t>
+          <t>25,62; 28,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,51; 30,72</t>
+          <t>27,55; 30,6</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>24,49; 27,85</t>
+          <t>24,67; 27,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,84; 30,68</t>
+          <t>23,57; 30,69</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>20,61; 22,62</t>
+          <t>20,52; 22,62</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>22,65; 24,66</t>
+          <t>22,61; 24,69</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>20,43; 22,54</t>
+          <t>20,46; 22,54</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>24,41; 36,23</t>
+          <t>24,18; 35,49</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población en el primer cuartil (49.019) de la puntuación del componente de salud física (SF12)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>697</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>120035</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>134580</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>129649</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>170073</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>187284</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>218129</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>202869</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>216797</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>307319</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>352710</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>332517</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>386870</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>101780; 141063</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>114343; 155413</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>110565; 150924</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>149746; 191898</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>164376; 209516</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>193353; 243429</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>178563; 227397</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>199655; 235497</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>275894; 337643</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>320198; 387329</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>300691; 364661</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>358551; 419912</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>527</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>740</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>136762</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>188825</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>167511</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>417508</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>264595</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>306010</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>275558</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>286008</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>401357</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>494835</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>443069</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>703517</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>114846; 159545</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>165793; 217689</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>145064; 191568</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>208637; 775867</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>238067; 294711</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>279426; 335656</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>246281; 305267</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>264318; 308668</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>367627; 440241</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>456625; 538944</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>404420; 481274</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>509243; 1144651</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>117071</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>106943</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>111135</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>145981</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>196436</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>202585</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>182630</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>188471</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>313507</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>309528</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>293765</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>334452</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>98281; 137105</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>87776; 129428</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>92026; 132331</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>124055; 169626</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>175589; 220819</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>176979; 230203</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>157742; 206836</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>103212; 253933</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>282969; 344565</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>276143; 341874</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>261439; 328349</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>220789; 393452</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>835</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>143811</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>182070</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>158055</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>199103</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>270757</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>310365</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>265654</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>334039</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>414568</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>492435</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>423709</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>533142</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>124841; 165887</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>158297; 207779</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>137276; 183979</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>177770; 224588</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>243847; 298938</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>280495; 340443</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>235940; 294993</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>268013; 368065</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>378861; 448421</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>455306; 534213</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>388456; 463191</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>468274; 576518</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>529</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>862</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>888</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>958</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>806</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1897</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1417</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1518</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1363</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>2759</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>517680</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>612418</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>566350</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>932665</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>919072</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1037089</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>926711</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1025315</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1436752</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1649508</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1493061</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1957981</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>479996; 560644</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>573040; 658524</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>523746; 609668</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>727315; 1613373</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>865860; 971428</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>980169; 1088966</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>874369; 984036</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>858752; 1118072</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1365870; 1505658</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1579453; 1724670</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1419595; 1563796</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1713593; 2514992</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>